--- a/data/landings/mexico/conapesca/raw/CONAPESCA_2015_metadata.xlsx
+++ b/data/landings/mexico/conapesca/raw/CONAPESCA_2015_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/mexico/conapesca/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01865A2F-706F-284B-928B-B24BEF4609D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF00200-7B0A-1447-98E4-713993C967DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6AD1FC1E-F8F1-934E-8FE7-1FC88D0F3689}"/>
+    <workbookView xWindow="21200" yWindow="620" windowWidth="25600" windowHeight="15540" xr2:uid="{6AD1FC1E-F8F1-934E-8FE7-1FC88D0F3689}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>Species group</t>
   </si>
   <si>
-    <t>Common name</t>
-  </si>
-  <si>
     <t>Scientific name</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>345 scientific names</t>
+  </si>
+  <si>
+    <t>Common name, plus information about capture vs. culture and how processed?</t>
   </si>
 </sst>
 </file>
@@ -835,15 +835,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A4E82F-DCF9-2A4F-85C9-D9BC47919ED1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,10 +869,10 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -883,10 +883,10 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -897,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -911,10 +911,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
         <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -925,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,10 +939,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
         <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -956,7 +956,7 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
         <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -995,10 +995,10 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1009,10 +1009,10 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1023,10 +1023,10 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1037,10 +1037,10 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1068,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5C4BE-439A-934F-8DAE-7E230CFFEA89}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/data/landings/mexico/conapesca/raw/CONAPESCA_2015_metadata.xlsx
+++ b/data/landings/mexico/conapesca/raw/CONAPESCA_2015_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/mexico/conapesca/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF00200-7B0A-1447-98E4-713993C967DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C297F32B-68B7-2F43-BFEE-B66E14C98B12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21200" yWindow="620" windowWidth="25600" windowHeight="15540" xr2:uid="{6AD1FC1E-F8F1-934E-8FE7-1FC88D0F3689}"/>
+    <workbookView xWindow="31360" yWindow="7620" windowWidth="25600" windowHeight="15540" xr2:uid="{6AD1FC1E-F8F1-934E-8FE7-1FC88D0F3689}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/landings/mexico/conapesca/raw/CONAPESCA_2015_metadata.xlsx
+++ b/data/landings/mexico/conapesca/raw/CONAPESCA_2015_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/mexico/conapesca/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C297F32B-68B7-2F43-BFEE-B66E14C98B12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E8136-E5B7-354F-BA6F-BB8D5EC1A0D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="7620" windowWidth="25600" windowHeight="15540" xr2:uid="{6AD1FC1E-F8F1-934E-8FE7-1FC88D0F3689}"/>
+    <workbookView xWindow="24040" yWindow="460" windowWidth="29500" windowHeight="23840" activeTab="1" xr2:uid="{6AD1FC1E-F8F1-934E-8FE7-1FC88D0F3689}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
   <si>
     <t>Attribute (English)</t>
   </si>
@@ -313,18 +313,6 @@
     <t>Algae</t>
   </si>
   <si>
-    <t>Clam</t>
-  </si>
-  <si>
-    <t>Anchovy</t>
-  </si>
-  <si>
-    <t>Tuna</t>
-  </si>
-  <si>
-    <t>Catfish</t>
-  </si>
-  <si>
     <t>Sea bream</t>
   </si>
   <si>
@@ -352,18 +340,12 @@
     <t>Sole</t>
   </si>
   <si>
-    <t>Bass</t>
-  </si>
-  <si>
     <t>Oyster</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Snapper</t>
-  </si>
-  <si>
     <t>Ornamental fish</t>
   </si>
   <si>
@@ -373,21 +355,9 @@
     <t>Octopus</t>
   </si>
   <si>
-    <t>Stripe and the like?</t>
-  </si>
-  <si>
-    <t>Bass?</t>
-  </si>
-  <si>
     <t>Sardine</t>
   </si>
   <si>
-    <t>Shark</t>
-  </si>
-  <si>
-    <t>Trout</t>
-  </si>
-  <si>
     <t>2000-2015</t>
   </si>
   <si>
@@ -461,13 +431,109 @@
   </si>
   <si>
     <t>Common name, plus information about capture vs. culture and how processed?</t>
+  </si>
+  <si>
+    <t>Freshwater catfish</t>
+  </si>
+  <si>
+    <t>Ocean catfish</t>
+  </si>
+  <si>
+    <t>Tunas</t>
+  </si>
+  <si>
+    <t>Anchovies</t>
+  </si>
+  <si>
+    <t>Clams</t>
+  </si>
+  <si>
+    <t>Hyporthodus groupers</t>
+  </si>
+  <si>
+    <t>Skipjack tunas</t>
+  </si>
+  <si>
+    <t>Croakers</t>
+  </si>
+  <si>
+    <t>Bonitos</t>
+  </si>
+  <si>
+    <t>Groupers and sea basses</t>
+  </si>
+  <si>
+    <t>Carps</t>
+  </si>
+  <si>
+    <t>Neotropical silversides</t>
+  </si>
+  <si>
+    <t>Frostfish</t>
+  </si>
+  <si>
+    <t>Weakfish, sea trouts</t>
+  </si>
+  <si>
+    <t>Urchins</t>
+  </si>
+  <si>
+    <t>Amberjacks</t>
+  </si>
+  <si>
+    <t>Spiny lobsters</t>
+  </si>
+  <si>
+    <t>Mullets</t>
+  </si>
+  <si>
+    <t>Freshwater bass</t>
+  </si>
+  <si>
+    <t>Pompanos</t>
+  </si>
+  <si>
+    <t>Tilefishes</t>
+  </si>
+  <si>
+    <t>Snooks</t>
+  </si>
+  <si>
+    <t>Rays</t>
+  </si>
+  <si>
+    <t>Snappers 3</t>
+  </si>
+  <si>
+    <t>Snappers 2</t>
+  </si>
+  <si>
+    <t>Snappers 1</t>
+  </si>
+  <si>
+    <t>Grunts 2</t>
+  </si>
+  <si>
+    <t>Grunts 1</t>
+  </si>
+  <si>
+    <t>Sargassum </t>
+  </si>
+  <si>
+    <t>Spanish mackerels</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>Trouts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -482,6 +548,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,10 +587,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A4E82F-DCF9-2A4F-85C9-D9BC47919ED1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -869,10 +942,10 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -883,10 +956,10 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -897,10 +970,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -911,10 +984,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -925,10 +998,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,10 +1012,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -953,10 +1026,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -967,10 +1040,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -981,10 +1054,10 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -995,10 +1068,10 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1009,10 +1082,10 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1023,10 +1096,10 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1037,10 +1110,10 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1054,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1068,7 +1141,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1080,13 +1153,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5C4BE-439A-934F-8DAE-7E230CFFEA89}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1192,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1200,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1208,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,53 +1216,71 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,7 +1288,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,53 +1296,71 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,13 +1372,16 @@
       <c r="A27" t="s">
         <v>61</v>
       </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1276,46 +1389,55 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1341,7 +1463,7 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1349,20 +1471,23 @@
         <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1495,7 @@
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,7 +1503,7 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,13 +1515,16 @@
       <c r="A46" t="s">
         <v>80</v>
       </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,7 +1532,7 @@
         <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1412,48 +1540,63 @@
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>84</v>
       </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>88</v>
       </c>
+      <c r="B54" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>89</v>
       </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1461,7 +1604,7 @@
         <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
